--- a/F_dataset/DUD-E/KPCB/KPCB_preprocessing/KPCB_valid.xlsx
+++ b/F_dataset/DUD-E/KPCB/KPCB_preprocessing/KPCB_valid.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD57680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B060&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A880&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL295806</t>
+          <t>CHEMBL131193</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,44 +692,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>O=C(OC1CCCC1Cc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
+          <t>CO[C@H]1[C@@H](N(C)Cc2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O=C(OC1CCCC1Cc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
+          <t>CO[C@H]1[C@@H](N(C)Cc2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>492.48</v>
+        <v>556.67</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
         <v>9</v>
       </c>
-      <c r="J4" t="n">
-        <v>7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4</v>
-      </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>161.59</v>
+        <v>60.66</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA06D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A030&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL538718</t>
+          <t>CHEMBL295806</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CN1C[C@@H]2Cn3c(c(C4=C(c5cn(C)c6ccccc56)C(=O)NC4=O)c4ccccc43)C[C@H]2C1</t>
+          <t>O=C(OC1CCCC1Cc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CN1C[C@@H]2Cc3c(C4=C(c5cn(C)c6ccccc56)C(=O)NC4=O)c4ccccc4n3C[C@H]2C1</t>
+          <t>O=C(OC1CCCC1Cc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>450.54</v>
+        <v>492.48</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
       <c r="M5" t="n">
-        <v>59.27</v>
+        <v>161.59</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA04A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139620&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL6291</t>
+          <t>CHEMBL538718</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3cn(CCCSC(=N)N)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CN1C[C@@H]2Cn3c(c(C4=C(c5cn(C)c6ccccc56)C(=O)NC4=O)c4ccccc43)C[C@H]2C1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3cn(CCCSC(=N)N)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CN1C[C@@H]2Cc3c(C4=C(c5cn(C)c6ccccc56)C(=O)NC4=O)c4ccccc4n3C[C@H]2C1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>457.56</v>
+        <v>450.54</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>105.9</v>
+        <v>59.27</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139000&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL366668</t>
+          <t>CHEMBL6291</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4ccccc4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>Cn1cc(C2=C(c3cn(CCCSC(=N)N)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4ccccc4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>Cn1cc(C2=C(c3cn(CCCSC(=N)N)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>489.58</v>
+        <v>457.56</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>72.16</v>
+        <v>105.9</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138EB0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL103506</t>
+          <t>CHEMBL366668</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CCN1CCOCCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4ccccc4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CCN1CCOCCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4ccccc4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>512.61</v>
+        <v>489.58</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>77.73</v>
+        <v>72.16</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138CF0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL300138</t>
+          <t>CHEMBL103506</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccn5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CCN1CCOCCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccn5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CCN1CCOCCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>515.62</v>
+        <v>512.61</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>72.16</v>
+        <v>77.73</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138C80&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL335012</t>
+          <t>CHEMBL300138</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CO[C@H]1[C@@H](N(C)C(=O)c2cccnc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccn5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CO[C@H]1[C@@H](N(C)C(=O)c2cccnc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccn5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>571.64</v>
+        <v>515.62</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>90.62</v>
+        <v>72.16</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138C10&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA13F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138AC0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA00B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138A50&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138580&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138740&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA2030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1387B0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA2FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138900&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA2570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1389E0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA3680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13ADC0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1786,7 +1786,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB90E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181070&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1854,7 +1854,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB8890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180B30&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB86D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1803C0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1990,7 +1990,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBA7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181460&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2058,7 +2058,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB9BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180040&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2126,7 +2126,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBA180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180D60&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2194,7 +2194,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBB370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181700&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2262,7 +2262,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBA960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180970&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2330,7 +2330,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBA420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180890&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2398,7 +2398,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB8740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180660&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2466,7 +2466,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBAD50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180580&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2534,7 +2534,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBB990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180BA0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2602,7 +2602,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBB760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180A50&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2670,7 +2670,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBAF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181540&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2738,7 +2738,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB95B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180190&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2806,7 +2806,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBB300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1800B0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2874,7 +2874,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBB220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181000&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2942,7 +2942,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBBD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180DD0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3010,7 +3010,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBAE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180900&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3078,7 +3078,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBAA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD183A00&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDBA810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180F90&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB9E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1806D0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB9D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181380&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB99A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180C10&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDB9150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180820&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">

--- a/F_dataset/DUD-E/KPCB/KPCB_preprocessing/KPCB_valid.xlsx
+++ b/F_dataset/DUD-E/KPCB/KPCB_preprocessing/KPCB_valid.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL523155</t>
+          <t>CHEMBL315357</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CC(C)=C1CC(CO)(COC(=O)COc2ccc(C#Cc3ccc(C)cc3)cc2)OC1=O</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CN1CCOCC1)CCn1cc2c2ccccc21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CC(C)=C1CC(CO)(COC(=O)COc2ccc(C#Cc3ccc(C)cc3)cc2)OC1=O</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CN1CCOCC1)CCn1cc2c2ccccc21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>434.49</v>
+        <v>510.59</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>82.06</v>
+        <v>77.73</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB1D90&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL161832</t>
+          <t>CHEMBL318272</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1c(-c2ccccc2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
+          <t>O=C(CCn1c2ccccc2c2c3c(c4c5ccccc5[nH]c4c21)C(=O)NC3)NCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1c(-c2ccccc2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
+          <t>O=C(CCn1c2ccccc2c2c3c(c4c5ccccc5[nH]c4c21)C(=O)NC3)NCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>404.5</v>
+        <v>495.58</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -655,13 +655,13 @@
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>100.97</v>
+        <v>91.39</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB1620&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL131193</t>
+          <t>CHEMBL359808</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,44 +692,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CO[C@H]1[C@@H](N(C)Cc2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cncc5ccccc45)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CO[C@H]1[C@@H](N(C)Cc2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cncc5ccccc45)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>556.67</v>
+        <v>540.63</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>60.66</v>
+        <v>85.05</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13A030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB14D0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL295806</t>
+          <t>CHEMBL103506</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>O=C(OC1CCCC1Cc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
+          <t>CCN1CCOCCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O=C(OC1CCCC1Cc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
+          <t>CCN1CCOCCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>492.48</v>
+        <v>512.61</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" t="n">
         <v>4</v>
       </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
       <c r="M5" t="n">
-        <v>161.59</v>
+        <v>77.73</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB0E40&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL538718</t>
+          <t>CHEMBL184146</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CN1C[C@@H]2Cn3c(c(C4=C(c5cn(C)c6ccccc56)C(=O)NC4=O)c4ccccc43)C[C@H]2C1</t>
+          <t>CN1CCN(CCCn2cc(C3=C(Nc4ccccc4)C(=O)NC3=O)c3ccccc32)CC1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CN1C[C@@H]2Cc3c(C4=C(c5cn(C)c6ccccc56)C(=O)NC4=O)c4ccccc4n3C[C@H]2C1</t>
+          <t>CN1CCN(CCCn2cc(C3=C(Nc4ccccc4)C(=O)NC3=O)c3ccccc32)CC1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>450.54</v>
+        <v>443.55</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
       <c r="M6" t="n">
-        <v>59.27</v>
+        <v>69.61</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB15B0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL6291</t>
+          <t>CHEMBL300549</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3cn(CCCSC(=N)N)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccc5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3cn(CCCSC(=N)N)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccc5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>457.56</v>
+        <v>514.63</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
+        <v>7</v>
+      </c>
+      <c r="L7" t="n">
         <v>5</v>
       </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
       <c r="M7" t="n">
-        <v>105.9</v>
+        <v>59.27</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB0820&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL366668</t>
+          <t>CHEMBL367107</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4ccccc4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NC(=O)C(c2nn(CCCN3CCCC3)c3ccccc23)=C1c1cn(-c2ccc3ccccc3c2)c2ccccc12</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4ccccc4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NC(=O)C(c2nn(CCCN3CCCC3)c3ccccc23)=C1c1cn(-c2ccc3ccccc3c2)c2ccccc12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>489.58</v>
+        <v>565.6799999999999</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -995,10 +995,10 @@
         <v>7</v>
       </c>
       <c r="K8" t="n">
+        <v>8</v>
+      </c>
+      <c r="L8" t="n">
         <v>6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>72.16</v>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB3DF0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL103506</t>
+          <t>CHEMBL419866</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CCN1CCOCCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CN1CCCC1)CCn1cc2c2ccccc21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CCN1CCOCCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CN1CCCC1)CCn1cc2c2ccccc21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>512.61</v>
+        <v>494.6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>77.73</v>
+        <v>68.5</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB0D60&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL300138</t>
+          <t>CHEMBL340935</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccn5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCOCCOCCOCCn1cc2c2cccnc21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccn5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCOCCOCCOCCn1cc2c2cccnc21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>515.62</v>
+        <v>486.53</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5</v>
-      </c>
       <c r="M10" t="n">
-        <v>72.16</v>
+        <v>96.61</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB12A0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL419866</t>
+          <t>CHEMBL59687</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CN1CCCC1)CCn1cc2c2ccccc21</t>
+          <t>O=C(N[C@@H]1CCCNC[C@H]1NC(=O)c1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CN1CCCC1)CCn1cc2c2ccccc21</t>
+          <t>O=C(N[C@@H]1CCCNC[C@H]1NC(=O)c1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>494.6</v>
+        <v>549.54</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7</v>
-      </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>68.5</v>
+        <v>205.52</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB0EB0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL340935</t>
+          <t>CHEMBL368895</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCOCCOCCOCCn1cc2c2cccnc21</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4ccc5ccccc5c4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCOCCOCCOCCn1cc2c2cccnc21</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4ccc5ccccc5c4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1251,29 +1251,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>486.53</v>
+        <v>539.64</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7</v>
+      </c>
+      <c r="L12" t="n">
         <v>6</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
       <c r="M12" t="n">
-        <v>96.61</v>
+        <v>72.16</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB0B30&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL97822</t>
+          <t>CHEMBL106384</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>O=C(CCn1c2ccccc2c2c3c(c4c5ccccc5[nH]c4c21)C(=O)NC3)NCC1CCOC1</t>
+          <t>CN1CCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCN(C)CC1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>O=C(CCn1c2ccccc2c2c3c(c4c5ccccc5[nH]c4c21)C(=O)NC3)NCC1CCOC1</t>
+          <t>CN1CCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCN(C)CC1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1319,29 +1319,29 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>466.54</v>
+        <v>511.63</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>88.15000000000001</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB3CA0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL59687</t>
+          <t>CHEMBL187235</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1CCCNC[C@H]1NC(=O)c1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
+          <t>O=C1NC(=O)C(c2cn(CCCN3CCCCC3)c3ccccc23)=C1Nc1ccccc1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1CCCNC[C@H]1NC(=O)c1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
+          <t>O=C1NC(=O)C(c2cn(CCCN3CCCCC3)c3ccccc23)=C1Nc1ccccc1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1387,29 +1387,29 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>549.54</v>
+        <v>428.54</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>205.52</v>
+        <v>66.37</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB1690&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL106384</t>
+          <t>CHEMBL367106</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CN1CCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCN(C)CC1</t>
+          <t>O=C1NC(=O)C(c2nn(CCCN3CCOCC3)c3ccccc23)=C1c1cn(-c2ccc3ccccc3c2)c2ccccc12</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CN1CCOCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCN(C)CC1</t>
+          <t>O=C1NC(=O)C(c2nn(CCCN3CCOCC3)c3ccccc23)=C1c1cn(-c2ccc3ccccc3c2)c2ccccc12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>511.63</v>
+        <v>581.6799999999999</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1468,16 +1468,16 @@
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
+        <v>8</v>
+      </c>
+      <c r="L15" t="n">
         <v>6</v>
       </c>
-      <c r="L15" t="n">
-        <v>4</v>
-      </c>
       <c r="M15" t="n">
-        <v>71.73999999999999</v>
+        <v>81.39</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1387B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB2DC0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL291975</t>
+          <t>CHEMBL105477</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccc5)C4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CN1CCOCCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccc5)C4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CN1CCOCCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>500.6</v>
+        <v>511.63</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>59.27</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB0DD0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL175845</t>
+          <t>CHEMBL321315</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCn2nc(C3=C(c4cn(-c5ccc6ccccc6c5)c5ccccc45)C(=O)NC3=O)c3ccccc32)CC1</t>
+          <t>CN1CCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCOCCOCC1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCn2nc(C3=C(c4cn(-c5ccc6ccccc6c5)c5ccccc45)C(=O)NC3=O)c3ccccc32)CC1</t>
+          <t>CN1CCCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCOCCOCC1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>594.72</v>
+        <v>512.61</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1604,16 +1604,16 @@
         <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>75.40000000000001</v>
+        <v>77.73</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1389E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB17E0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL365656</t>
+          <t>CHEMBL319265</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1cc(C2=C(Nc3ccccc3)C(=O)NC2=O)c2ccccc21</t>
+          <t>CN1CCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1cc(C2=C(Nc3ccccc3)C(=O)NC2=O)c2ccccc21</t>
+          <t>CN1CCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1659,66 +1659,40 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>388.47</v>
+        <v>467.57</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" t="n">
         <v>4</v>
       </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
       <c r="M18" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>CHEMBL3063098</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta2 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>62.51</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13ADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8EB33E0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1730,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C05121289</t>
+          <t>C05758830</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1738,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nc1ncnc2c1c(-c1nc(-c3ccccc3)cs1)cn2[C@@H]1O[C@@H](CO)[C@@H](O)[C@@H]1O</t>
+          <t>Oc1cc(O)cc([C@@H]2c3c(/C=C/c4ccc(O)c(O)c4)cc(O)cc3O[C@@H]2c2ccc(O)c(O)c2)c1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nc1ncnc2c1c(-c1nc(-c3ccccc3)cs1)cn2[C@@H]1O[C@@H](CO)[C@@H](O)[C@@H]1O</t>
+          <t>Oc1cc(O)cc([C@@H]2c3c(/C=C/c4ccc(O)c(O)c4)cc(O)cc3O[C@@H]2c2ccc(O)c(O)c2)c1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1757,10 +1731,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>425.47</v>
+        <v>486.48</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
         <v>8</v>
@@ -1775,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>139.54</v>
+        <v>150.84</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1786,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E53AE0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1798,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C39937114</t>
+          <t>C09420065</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1806,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>COc1cc2c(=O)c(-c3ccc(O)cc3)coc2cc1O[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@@H]1O</t>
+          <t>O=C(/N=C1\S[C@H]2CS(=O)(=O)C[C@H]2N1c1ccc2c(c1)OCCO2)c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COc1cc2c(=O)c(-c3ccc(O)cc3)coc2cc1O[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@@H]1O</t>
+          <t>O=C(/N=C1\S[C@H]2CS(=O)(=O)C[C@H]2N1c1ccc2c(c1)OCCO2)c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1825,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>446.41</v>
+        <v>464.95</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
         <v>5</v>
       </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4</v>
-      </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>159.05</v>
+        <v>85.27</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1854,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E53F40&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1866,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C24544134</t>
+          <t>C50617178</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1874,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c2c(-c3ccc(Br)cc3)c3cc4c(c(=O)n(C)c(=O)n4C)n3cc2n(C)c1=O</t>
+          <t>Clc1cccc([C@H]2Oc3ccc(Cl)cc3C3=Nc4ncnn4[C@H](c4cccnc4)[C@H]32)c1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c2c(-c3ccc(Br)cc3)c3cc4c(c(=O)n(C)c(=O)n4C)n3cc2n(C)c1=O</t>
+          <t>Clc1cccc([C@H]2Oc3ccc(Cl)cc3C3=Nc4ncnn4[C@H](c4cccnc4)[C@H]32)c1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1893,7 +1867,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>496.32</v>
+        <v>448.31</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1902,16 +1876,16 @@
         <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>92.41</v>
+        <v>65.19</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1922,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1803C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E53760&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1934,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C12390032</t>
+          <t>C24544134</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1942,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CC1(C)CC(=O)C2=C(C1)Nc1nonc1N[C@@H]2c1ccc(Cl)cc1</t>
+          <t>Cn1c(=O)c2c(-c3ccc(Br)cc3)c3cc4c(c(=O)n(C)c(=O)n4C)n3cc2n(C)c1=O</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CC1(C)CC(=O)C2=C(C1)Nc1nonc1N[C@@H]2c1ccc(Cl)cc1</t>
+          <t>Cn1c(=O)c2c(-c3ccc(Br)cc3)c3cc4c(c(=O)n(C)c(=O)n4C)n3cc2n(C)c1=O</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1961,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>344.8</v>
+        <v>496.32</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>80.05</v>
+        <v>92.41</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1990,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E519A0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2002,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C44499814</t>
+          <t>C12390032</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2010,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cn1ccnc1S[C@@H]1C[C@@H]2[C@H]3CC=C4C[C@H](O)CC[C@@]4(C)[C@H]3CC[C@@]2(C)C1=O</t>
+          <t>CC1(C)CC(=O)C2=C(C1)Nc1nonc1N[C@@H]2c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cn1ccnc1S[C@@H]1C[C@@H]2[C@H]3CC=C4C[C@H](O)CC[C@@]4(C)[C@H]3CC[C@@]2(C)C1=O</t>
+          <t>CC1(C)CC(=O)C2=C(C1)Nc1nonc1N[C@@H]2c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2029,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>400.59</v>
+        <v>344.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
         <v>4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>2</v>
       </c>
-      <c r="K23" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
       <c r="M23" t="n">
-        <v>55.12</v>
+        <v>80.05</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2058,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E534C0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2070,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C05516568</t>
+          <t>C43763130</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2078,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[H]/N=C1C(=C\c2cc(C)n(-c3ccc(Cl)cc3C)c2C)/C(=O)N=C2SC(C)=NN2/1</t>
+          <t>OCC[C@H]1OC12[C@@]1(CCCO1)[C@@]1(CCCO1)C1(CCCO1)[C@]1(CCCO1)[C@]21CCCO1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[H]/N=C1C(=C\c2cc(C)n(-c3ccc(Cl)cc3C)c2C)/C(=O)N=C2SC(C)=NN2/1</t>
+          <t>OCC[C@H]1OC12[C@@]1(CCCO1)[C@@]1(CCCO1)C1(CCCO1)[C@]1(CCCO1)[C@]21CCCO1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2097,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>411.92</v>
+        <v>436.55</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
         <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>73.81</v>
+        <v>78.91</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2126,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E523B0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2138,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C12784091</t>
+          <t>C03843558</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2146,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cc1sc2ncnc(N3CCC(C(=O)N(C)[C@@H]4CCS(=O)(=O)C4)CC3)c2c1C</t>
+          <t>C#C[C@]1(O)CC[C@@]2(C)[C@@H](CC[C@H]3[C@H]4CC[C@@](C)(O)[C@]4(C)CC[C@@H]32)C1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cc1sc2ncnc(N3CCC(C(=O)N(C)[C@@H]4CCS(=O)(=O)C4)CC3)c2c1C</t>
+          <t>C#C[C@]1(O)CC[C@@]2(C)[C@@H](CC[C@@H]3[C@@H]2CC[C@]2(C)[C@@H]3CC[C@@]2(C)O)C1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2165,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>422.58</v>
+        <v>330.51</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>83.47</v>
+        <v>40.46</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2194,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E53530&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2206,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C20568989</t>
+          <t>C37020217</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2214,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CC1=C(C(=O)OC(C)(C)C)[C@]2(C(=O)O1)C(C(=O)OC(C)C)=C(N)Nc1ccc(Br)cc12</t>
+          <t>[NH3+]CCCCCC(=O)Nc1cc(Cl)cc(Br)c1OC(F)F</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CC1=C(C(=O)OC(C)(C)C)[C@]2(C(=O)O1)C(C(=O)OC(C)C)=C(N)Nc1ccc(Br)cc12</t>
+          <t>[NH3+]CCCCCC(=O)Nc1cc(Cl)cc(Br)c1OC(F)F</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2233,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>493.35</v>
+        <v>386.64</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
         <v>8</v>
       </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>116.95</v>
+        <v>65.97</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2262,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E52B90&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2274,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C62326404</t>
+          <t>C28286503</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2282,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C=CCSC1=NS(=O)(=O)c2cc(C(C)C)ccc2[N-]1</t>
+          <t>Cc1cc(C)n(C2=Nc3sc4c(c3[C@H]([NH2+]C[C@@H]3CCCO3)[N-]2)CCCC4)n1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C=CCSC1=NS(=O)(=O)c2cc(C(C)C)ccc2[N-]1</t>
+          <t>Cc1cc(C)n(C2=Nc3sc4c(c3[C@H]([NH2+]C[C@@H]3CCCO3)[N-]2)CCCC4)n1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2301,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>295.41</v>
+        <v>385.54</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
       </c>
       <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
         <v>2</v>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
       <c r="M27" t="n">
-        <v>60.6</v>
+        <v>70.12</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2330,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E52DC0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2342,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C12501046</t>
+          <t>C04403687</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2350,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NC(=[NH2+])c1ccc2[nH]c(-c3cc([C@H](CC(=O)[O-])C(=O)[O-])cc(-c4ccccc4F)c3[O-])[nH+]c2c1</t>
+          <t>OC[C@@H](O)[C@@H](O)[C@@H](O)[C@H](O)[C@H](O)C(/C=N/Nc1ccccc1)=N/Nc1ccccc1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NC(=[NH2+])c1ccc2[nH]c(-c3cc([C@H](CC(=O)[O-])C(=O)[O-])cc(-c4ccccc4F)c3[O-])[nH+]c2c1</t>
+          <t>OC[C@@H](O)[C@@H](O)[C@@H](O)[C@H](O)[C@H](O)C(/C=N/Nc1ccccc1)=N/Nc1ccccc1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2369,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>461.43</v>
+        <v>418.45</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>184.86</v>
+        <v>170.16</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2398,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E53DF0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2410,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C32718991</t>
+          <t>C16958163</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2418,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COc1c(F)c(F)c(S(=O)(=O)N[C@H](C)c2ccc(-n3ccnc3)cc2)c(F)c1F</t>
+          <t>NNC(=S)N/N=C(/C(=O)Nc1cccc(O)c1)C1C(=O)NC(=S)NC1=O</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>COc1c(F)c(F)c(S(=O)(=O)N[C@H](C)c2ccc(-n3ccnc3)cc2)c(F)c1F</t>
+          <t>NNC(=S)N/N=C(/C(=O)Nc1cccc(O)c1)C1C(=O)NC(=S)NC1=O</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2437,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>429.4</v>
+        <v>395.43</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
         <v>4</v>
       </c>
-      <c r="J29" t="n">
-        <v>6</v>
-      </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>73.22</v>
+        <v>169.97</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2466,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E51A80&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2478,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C54028929</t>
+          <t>C39007259</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2486,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CCC[NH2+][C@H](CCN(CCCOC)CCOC)C(C)(C)C</t>
+          <t>[NH3+][C@@H]1C2=CC=C(c3cc[nH+]cc3)N[C@@H]2S[C@@H]1C(=O)Nc1nnc(SCc2ccccc2Cl)s1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CCC[NH2+][C@H](CCN(CCCOC)CCOC)C(C)(C)C</t>
+          <t>[NH3+][C@@H]1C2=CC=C(c3cc[nH+]cc3)N[C@@H]2S[C@@H]1C(=O)Nc1nnc(SCc2ccccc2Cl)s1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2505,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>303.51</v>
+        <v>517.11</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" t="n">
         <v>3</v>
       </c>
-      <c r="J30" t="n">
-        <v>13</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
       <c r="M30" t="n">
-        <v>38.31</v>
+        <v>108.69</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2534,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E51BD0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2546,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C66814191</t>
+          <t>C04886756</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2554,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cnc(N2CCO[C@@H](c3ccccc3F)C2)s1</t>
+          <t>COc1ccc2c(c1OC)[C@](O)(Cc1ccccc1)O[C@@H]2[C@H]1c2c(cc3c(c2OC)OCO3)CC[NH+]1C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cnc(N2CCO[C@@H](c3ccccc3F)C2)s1</t>
+          <t>COc1ccc2c(c1OC)[C@](O)(Cc1ccccc1)O[C@@H]2[C@H]1c2c(cc3c(c2OC)OCO3)CC[NH+]1C</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2573,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>343.41</v>
+        <v>506.58</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
+        <v>6</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6</v>
+      </c>
+      <c r="L31" t="n">
         <v>3</v>
       </c>
-      <c r="K31" t="n">
-        <v>3</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2</v>
-      </c>
       <c r="M31" t="n">
-        <v>85.52</v>
+        <v>80.05</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2602,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E52E30&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2614,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C53631712</t>
+          <t>C22061225</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2622,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>O=C1/C(=C/NCCc2c[nH]c[nH+]2)C(C(F)(F)F)=NN1[C@H]1Nc2ccccc2S1</t>
+          <t>C[C@H](O)C(C)(C)C(=O)O[C@H]1C[C@@H](C)C=C2C=C[C@H](C)[C@H](CC[C@@H](O)C[C@@H](O)CC(=O)[O-])[C@H]21</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O=C1/C(=C/NCCc2c[nH]c[nH+]2)C(C(F)(F)F)=NN1[C@H]1Nc2ccccc2S1</t>
+          <t>C[C@H](O)C(C)(C)C(=O)O[C@H]1C[C@@H](C)C=C2C=C[C@H](C)[C@H](CC[C@@H](O)C[C@@H](O)CC(=O)[O-])[C@H]21</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2641,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>409.42</v>
+        <v>451.58</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>86.66</v>
+        <v>127.12</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2670,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E51AF0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2682,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C16000677</t>
+          <t>C13733916</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2690,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cc1ccc([N+](=O)[O-])cc1N1C(=O)[C@@H]2[C@@H]3CCC[NH+]3[C@]3(C(=O)Nc4c3ccc(C)c4C)[C@H]2C1=O</t>
+          <t>CCCC[NH+](CCCC)CCCNCc1cccc(OCc2ccc(C)cc2)c1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cc1ccc([N+](=O)[O-])cc1N1C(=O)[C@@H]2[C@@H]3CCC[NH+]3[C@]3(C(=O)Nc4c3ccc(C)c4C)[C@H]2C1=O</t>
+          <t>CCCC[NH+](CCCC)CCCNCc1cccc(OCc2ccc(C)cc2)c1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2709,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>461.5</v>
+        <v>397.63</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
+        <v>15</v>
+      </c>
+      <c r="K33" t="n">
         <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>6</v>
       </c>
       <c r="L33" t="n">
         <v>2</v>
       </c>
       <c r="M33" t="n">
-        <v>114.06</v>
+        <v>25.7</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2738,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E52D50&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2750,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C02253808</t>
+          <t>C63209272</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2758,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CSC1=NC2=[NH+]C3=C([C@H](c4cccs4)Oc4ccccc43)[C@H](c3ccc(Br)cc3)N2N1</t>
+          <t>Nc1ccc(F)cc1[N-]S(=O)(=O)c1c(F)cc(F)cc1F</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CSC1=NC2=[NH+]C3=C([C@H](c4ccc(Br)cc4)N2N1)[C@H](c1cccs1)Oc1ccccc13</t>
+          <t>Nc1ccc(F)cc1[N-]S(=O)(=O)c1c(F)cc(F)cc1F</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2773,29 +2747,29 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>510.46</v>
+        <v>319.26</v>
       </c>
       <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
         <v>2</v>
       </c>
-      <c r="I34" t="n">
-        <v>4</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>2</v>
       </c>
-      <c r="K34" t="n">
-        <v>6</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3</v>
-      </c>
       <c r="M34" t="n">
-        <v>50.83</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2806,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1800B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E50580&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2818,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C08925974</t>
+          <t>C39984269</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2826,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CN(C)c1nc(Nc2ccc(OC(F)(F)F)cc2)nc(N2CC[NH+](C34CC5CC(CC(C5)C3)C4)CC2)n1</t>
+          <t>O=S(=O)(/N=C1\N=c2ccccc2=[NH+][C@H]1Nc1ccc2nsnc2c1)c1ccccc1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CN(C)c1nc(Nc2ccc(OC(F)(F)F)cc2)nc(N2CC[NH+](C34CC5CC(CC(C5)C3)C4)CC2)n1</t>
+          <t>O=S(=O)(/N=C1\N=c2ccccc2=[NH+][C@H]1Nc1ccc2nsnc2c1)c1ccccc1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2841,29 +2815,29 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>518.61</v>
+        <v>435.51</v>
       </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>70.84999999999999</v>
+        <v>110.64</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2874,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E51C40&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2886,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C39965416</t>
+          <t>C27193399</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2894,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CCC(C)(C)[C@@H]1CCc2c(sc(NC(=O)CSc3nnc(-c4ccc5c(c4)OCO5)n3C)c2C#N)C1</t>
+          <t>N/C(=N\O)c1ccc2nc(-c3ccc(-c4ccc(C(=[NH2+])NO)cc4)o3)cn2c1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CCC(C)(C)[C@@H]1CCc2c(sc(NC(=O)CSc3nnc(-c4ccc5c(c4)OCO5)n3C)c2C#N)C1</t>
+          <t>N/C(=N\O)c1ccc2nc(-c3ccc(-c4ccc(C(=[NH2+])NO)cc4)o3)cn2c1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2909,29 +2883,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>523.6799999999999</v>
+        <v>377.38</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>102.06</v>
+        <v>146.9</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2942,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E5F1B0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2954,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C61720269</t>
+          <t>C25392697</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2962,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N#Cc1cccnc1Oc1ccc([C@@H]2[NH2+]CC[C@@]23C(=O)Nc2ccccc23)cc1</t>
+          <t>O=C([O-])c1cccc(S(=O)(=O)Nc2cccc(S(=O)(=O)[N-]c3ccc(Br)cc3)c2)c1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>N#Cc1cccnc1Oc1ccc([C@@H]2[NH2+]CC[C@@]23C(=O)Nc2ccccc23)cc1</t>
+          <t>O=C([O-])c1cccc(S(=O)(=O)Nc2cccc(S(=O)(=O)[N-]c3ccc(Br)cc3)c2)c1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2981,25 +2955,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>383.43</v>
+        <v>509.36</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
+        <v>7</v>
+      </c>
+      <c r="K37" t="n">
         <v>3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5</v>
       </c>
       <c r="L37" t="n">
         <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>91.62</v>
+        <v>134.54</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -3010,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E5F300&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3022,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C35226607</t>
+          <t>C08607241</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3030,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>COc1ccccc1N1CCN(C(=O)c2ccc(C[NH+](Cc3ccccc3C)C3CCCCC3)o2)CC1</t>
+          <t>CCSc1nc2n(n1)[C@@H](c1ccc(C(=O)[O-])cc1)C(C(=O)Nc1ccccc1C)=C(C)N2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>COc1ccccc1N1CCN(C(=O)c2ccc(C[NH+](Cc3ccccc3C)C3CCCCC3)o2)CC1</t>
+          <t>CCSc1nc2n(n1)[C@@H](c1ccc(C(=O)[O-])cc1)C(C(=O)Nc1ccccc1C)=C(C)N2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3049,25 +3023,25 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>502.68</v>
+        <v>448.53</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
+        <v>7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6</v>
+      </c>
+      <c r="K38" t="n">
         <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>8</v>
-      </c>
-      <c r="K38" t="n">
-        <v>5</v>
       </c>
       <c r="L38" t="n">
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>50.36</v>
+        <v>111.97</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3078,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD183A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E5FCA0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3090,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL398606</t>
+          <t>C02253808</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3098,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CC(C)NCc1ccc(Nc2cc(-c3ccc(-c4ccc(O)cc4O)cc3)[nH]n2)cc1</t>
+          <t>CSC1=NC2=[NH+]C3=C([C@H](c4cccs4)Oc4ccccc43)[C@H](c3ccc(Br)cc3)N2N1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CC(C)NCc1ccc(Nc2cc(-c3ccc(-c4ccc(O)cc4O)cc3)[nH]n2)cc1</t>
+          <t>CSC1=NC2=[NH+]C3=C([C@H](c4ccc(Br)cc4)N2N1)[C@H](c1cccs1)Oc1ccccc13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3113,66 +3087,40 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>414.51</v>
+        <v>510.46</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>16</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>CHEMBL898057</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta at 1 uM</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>50.83</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E5D620&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3184,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL183906</t>
+          <t>C63572225</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3192,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)/C(=C/c2cccc(C(F)(F)F)c2)S1</t>
+          <t>COc1ccc([C@H]2[C@H]3[NH+]=c4ccc(Cl)cc4=C3CCN2C(=O)Nc2cc(C)ccc2OC)cc1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)/C(=C/c2cccc(C(F)(F)F)c2)S1</t>
+          <t>COc1ccc([C@H]2[C@H]3[NH+]=c4ccc(Cl)cc4=C3CCN2C(=O)Nc2cc(C)ccc2OC)cc1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3207,66 +3155,40 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>273.23</v>
+        <v>476.98</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>46.17</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>CHEMBL1012714</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta2 at 5 uM</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>64.77</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1806D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E5F6F0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3278,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL2376158</t>
+          <t>C01868949</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3286,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C[C@@H](NC(=O)c1c[nH]c2ncc(-c3ncn4cc(F)cc(F)c34)nc12)C(=O)N1CC(C#N)C1</t>
+          <t>NC(=O)c1ccccc1NCc1c(C(=O)N/N=C/c2cc(Cl)ccc2O)nnn1-c1nonc1N</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>C[C@@H](NC(=O)c1c[nH]c2ncc(-c3ncn4cc(F)cc(F)c34)nc12)C(=O)N1CC(C#N)C1</t>
+          <t>NC(=O)c1ccccc1NCc1c(C(=O)N/N=C/c2cc(Cl)ccc2O)nnn1-c1nonc1N</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3301,66 +3223,40 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>450.41</v>
+        <v>496.88</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J41" t="n">
+        <v>8</v>
+      </c>
+      <c r="K41" t="n">
         <v>4</v>
-      </c>
-      <c r="K41" t="n">
-        <v>5</v>
       </c>
       <c r="L41" t="n">
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>132.07</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>9</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>CHEMBL2378210</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Inhibition of protein kinase C beta (unknown origin) at 10 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>212.46</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E5CEB0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3372,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL202891</t>
+          <t>C61720269</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3380,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
+          <t>N#Cc1cccnc1Oc1ccc([C@@H]2[NH2+]CC[C@@]23C(=O)Nc2ccccc23)cc1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
+          <t>N#Cc1cccnc1Oc1ccc([C@@H]2[NH2+]CC[C@@]23C(=O)Nc2ccccc23)cc1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3395,66 +3291,40 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>328.38</v>
+        <v>383.43</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>CHEMBL1961911</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>91.62</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E5C040&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3466,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL3330401</t>
+          <t>C35226607</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3474,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>COC(C(=O)Nc1ccc2[nH]nc(-c3cccc(S(N)(=O)=O)c3)c2c1)c1ccccc1</t>
+          <t>COc1ccccc1N1CCN(C(=O)c2ccc(C[NH+](Cc3ccccc3C)C3CCCCC3)o2)CC1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>COC(C(=O)Nc1ccc2[nH]nc(-c3cccc(S(N)(=O)=O)c3)c2c1)c1ccccc1</t>
+          <t>COc1ccccc1N1CCN(C(=O)c2ccc(C[NH+](Cc3ccccc3C)C3CCCCC3)o2)CC1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3489,66 +3359,40 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>436.49</v>
+        <v>502.68</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>8</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
         <v>3</v>
       </c>
-      <c r="I43" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6</v>
-      </c>
-      <c r="K43" t="n">
-        <v>4</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4</v>
-      </c>
       <c r="M43" t="n">
-        <v>127.17</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>-5</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL3369108</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Inhibition of human PKCbeta1 at 1 uM by radiometric Assay</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>50.36</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000210F8E5DAF0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
